--- a/Documents/Table_Design.xlsx
+++ b/Documents/Table_Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dhejus\PythonPractice\XII_Project\AirwaysMS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E493E2-B524-4090-AEC4-0F1787977387}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3291E682-CDEC-495C-A0D3-8DD17C97DB83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{0CD1182E-49FF-4C0F-BFCE-C812B53468A7}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>DATABASE</t>
   </si>
@@ -187,6 +186,9 @@
   </si>
   <si>
     <t>Foreign Key,  `flights` (`F_ID`)</t>
+  </si>
+  <si>
+    <t>U_isAdmin</t>
   </si>
 </sst>
 </file>
@@ -330,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,6 +340,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,33 +379,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,6 +395,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,10 +726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A476AB-A7C4-4839-AE38-231A8A2744E9}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,13 +743,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -761,14 +769,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -785,7 +793,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="7"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -796,7 +804,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="7"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -809,7 +817,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>11</v>
@@ -820,7 +828,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="7"/>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -831,7 +839,7 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -842,7 +850,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -853,7 +861,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>15</v>
@@ -864,7 +872,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -875,54 +883,54 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="10" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
@@ -930,188 +938,199 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="10" t="s">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>47</v>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="11" t="s">
-        <v>41</v>
+      <c r="A28" s="14"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="11" t="s">
-        <v>43</v>
+      <c r="A29" s="14"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="11" t="s">
-        <v>45</v>
+      <c r="A30" s="14"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="11" t="s">
-        <v>46</v>
+      <c r="A31" s="14"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B4:B13"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B22:B25"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:A32"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="A4:A33"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:B33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>